--- a/20240712/在庫開発課題.xlsx
+++ b/20240712/在庫開発課題.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chach\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881F09C2-224F-4709-910C-43F9443585A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB73C5B-81C0-442E-9EB1-0E288F2C0302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="まとめ" sheetId="1" r:id="rId1"/>
-    <sheet name="メモ" sheetId="2" r:id="rId2"/>
+    <sheet name="概要" sheetId="4" r:id="rId1"/>
+    <sheet name="まとめ" sheetId="1" r:id="rId2"/>
+    <sheet name="メモ" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -468,12 +471,49 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>shift_jis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用語</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピュータ上で日本語を含む文字列を表現するために用いられる文字コードの一つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●機能</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +531,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
@@ -524,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -537,12 +594,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -552,6 +619,516 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>606266</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FF0C4C-9F2C-95D4-CAC6-E1EB28BE637B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680720" y="1217930"/>
+          <a:ext cx="11366976" cy="3740475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600710</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6DFC68-806D-06EE-4783-E84E7535617B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3966210" y="1983740"/>
+          <a:ext cx="6583680" cy="1289050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C6B0CE-87A1-4C90-9597-157FB040376F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10414000" y="2852420"/>
+          <a:ext cx="266700" cy="262890"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="吹き出し: 角を丸めた四角形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333982B7-07CF-C187-9247-E254D44873FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12947650" y="2313940"/>
+          <a:ext cx="3051810" cy="996950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -101095"/>
+            <a:gd name="adj2" fmla="val 11854"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ある解析区間で見たときに、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>なぜ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>個減少したのか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>232410</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="702244" cy="473463"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B767625-5BA5-BD7A-C32C-6D21DF1B6266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3597910" y="1484630"/>
+          <a:ext cx="702244" cy="473463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>17</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>個</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="558871" cy="473463"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C4E047-0937-4CDC-9EA2-F4F2197B5031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="2456180"/>
+          <a:ext cx="558871" cy="473463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>個</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="楕円 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DAB3C1-B1E3-411C-B0B0-FAA24D3EE0C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="1898650"/>
+          <a:ext cx="266700" cy="262890"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -816,11 +1393,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AAD515-4C37-4278-9D54-4F60C0288AF5}">
+  <dimension ref="B5:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="5" spans="2:2" ht="28.8">
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="28.8">
+      <c r="B25" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -920,12 +1524,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554AC612-2125-4400-8001-E7E122F86817}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -954,4 +1558,46 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC710273-C643-4C3D-BB84-97C23EBB6E49}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="3" max="3" width="72.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/20240712/在庫開発課題.xlsx
+++ b/20240712/在庫開発課題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chach\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB73C5B-81C0-442E-9EB1-0E288F2C0302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F326D1-C919-44A6-BAA0-5863BA22BBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1396,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AAD515-4C37-4278-9D54-4F60C0288AF5}">
   <dimension ref="B5:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
